--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17741\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tool\CodeBlocks16\2020_algorithm\tabu_search\Graph-coloring-submit\TabuSearchEx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769305C7-99E0-4C52-A9F3-15DA99436F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4C577-2B12-4D13-A03F-76F3E0E198AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1296" windowWidth="20256" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运行20分钟，可满足K=20</t>
+    <t>运行30s，可满足K=21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +381,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,705 +698,724 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>160</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>160</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>205</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>28</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="D23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="D26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>49</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="D28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="D29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>44</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="D33" s="3" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="D35" s="3" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="D36" s="3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="2">
         <v>0.1</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>72</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="D38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="D39" s="3" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>1000.1</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="A49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>1000.5</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="A53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="A54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>500.9</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="A56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="A57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="A58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="A59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>1000.9</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="A61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="A62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="A63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="A64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C60:F64"/>
-    <mergeCell ref="C55:F59"/>
-    <mergeCell ref="C45:F49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G32:G36"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C50:F54"/>
     <mergeCell ref="A45:A49"/>
@@ -1413,31 +1432,12 @@
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C60:F64"/>
+    <mergeCell ref="C55:F59"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运行结果.xlsx
+++ b/运行结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tool\CodeBlocks16\2020_algorithm\tabu_search\Graph-coloring-submit\TabuSearchEx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4C577-2B12-4D13-A03F-76F3E0E198AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A70F2D-1B9F-4C3D-B2E5-13C0861C9214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12852" yWindow="1176" windowWidth="20256" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>DSJC125.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,10 @@
   </si>
   <si>
     <t>运行30s，可满足K=21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -705,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -877,7 +881,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
@@ -1391,31 +1395,12 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="C60:F64"/>
+    <mergeCell ref="C55:F59"/>
+    <mergeCell ref="C45:F49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C50:F54"/>
     <mergeCell ref="A45:A49"/>
@@ -1432,12 +1417,31 @@
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C60:F64"/>
-    <mergeCell ref="C55:F59"/>
-    <mergeCell ref="C45:F49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
